--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,55 +46,58 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -106,66 +109,54 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -175,6 +166,9 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -196,10 +190,10 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
@@ -575,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>0.8461538461538461</v>
@@ -694,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7365591397849462</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7105263157894737</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.5094339622641509</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6990291262135923</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.421875</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="L7">
         <v>27</v>
@@ -886,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.4202898550724637</v>
+        <v>0.46875</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.676056338028169</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.3344262295081967</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L9">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>812</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6428571428571429</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.3041606886657102</v>
+        <v>0.3459016393442623</v>
       </c>
       <c r="L10">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="M10">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>485</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.640625</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.2427385892116183</v>
+        <v>0.2998565279770445</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="M11">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>365</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,16 +1109,16 @@
         <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.2166666666666667</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5777777777777777</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.1807228915662651</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5272727272727272</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="L14">
         <v>26</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14">
-        <v>0.1681957186544343</v>
-      </c>
-      <c r="L14">
-        <v>55</v>
-      </c>
       <c r="M14">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>272</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5208333333333334</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.164021164021164</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>158</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.09236947791164658</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>226</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4811594202898551</v>
+        <v>0.45</v>
       </c>
       <c r="C17">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.08413672217353199</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1045</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.03958468526930565</v>
+        <v>0.08413672217353199</v>
       </c>
       <c r="L18">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1480</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1438,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4409448818897638</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,7 +1456,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19">
+        <v>0.03311688311688311</v>
+      </c>
+      <c r="L19">
+        <v>51</v>
+      </c>
+      <c r="M19">
+        <v>52</v>
+      </c>
+      <c r="N19">
+        <v>0.98</v>
+      </c>
+      <c r="O19">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1489</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4337349397590362</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1496,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3894736842105263</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1514,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1522,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3515625</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1540,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1548,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3270142180094787</v>
+        <v>0.328125</v>
       </c>
       <c r="C23">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1566,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1574,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.301980198019802</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1600,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2921348314606741</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1618,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1626,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2474226804123711</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C26">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1644,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>146</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1652,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2448979591836735</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1670,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1678,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2307692307692308</v>
+        <v>0.213768115942029</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1704,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1839762611275964</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C29">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1722,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>550</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1730,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.18</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1748,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1756,13 +1774,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1772151898734177</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1774,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>260</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1782,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1528662420382166</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1800,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>133</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1808,13 +1826,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1521739130434783</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C33">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1826,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1834,13 +1852,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1518987341772152</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1852,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1860,13 +1878,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1387665198237885</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1878,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>391</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1886,13 +1904,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1121495327102804</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1904,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>190</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1912,13 +1930,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1120689655172414</v>
+        <v>0.13</v>
       </c>
       <c r="C37">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1930,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>309</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1938,13 +1956,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.09677419354838709</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1956,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1964,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0821917808219178</v>
+        <v>0.1005747126436782</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1982,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1990,25 +2008,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0738255033557047</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>414</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2016,13 +2034,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06760563380281689</v>
+        <v>0.06085526315789474</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2034,85 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.06095551894563427</v>
-      </c>
-      <c r="C42">
-        <v>37</v>
-      </c>
-      <c r="D42">
-        <v>38</v>
-      </c>
-      <c r="E42">
-        <v>0.03</v>
-      </c>
-      <c r="F42">
-        <v>0.97</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.05324074074074074</v>
-      </c>
-      <c r="C43">
-        <v>23</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43">
-        <v>0.08</v>
-      </c>
-      <c r="F43">
-        <v>0.92</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.02781289506953224</v>
-      </c>
-      <c r="C44">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44">
-        <v>0.12</v>
-      </c>
-      <c r="F44">
-        <v>0.88</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>769</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
